--- a/mysql/volume/media/template/EVO.xlsx
+++ b/mysql/volume/media/template/EVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\evoSite\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644CD778-9E93-4CE0-B218-823D58D4D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A513E8F5-B86D-478A-A037-6C523B94E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>一级菜单</t>
   </si>
@@ -42,34 +42,6 @@
     <t>icon</t>
   </si>
   <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入用户</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>考试管理</t>
-  </si>
-  <si>
-    <t>学生成绩单管理</t>
-  </si>
-  <si>
-    <t>学生成绩管理</t>
-  </si>
-  <si>
-    <t>题库管理</t>
-  </si>
-  <si>
-    <t>上传题库</t>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,9 +97,6 @@
     <t>alarm-clock</t>
   </si>
   <si>
-    <t>主观题判分</t>
-  </si>
-  <si>
     <t>对照参考答案，给学生的主观题打分</t>
   </si>
   <si>
@@ -171,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视频管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stu,tea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,18 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公告通知及管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/manage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试题查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/exam/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/exam_questions/judge_sub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,13 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控</t>
-  </si>
-  <si>
     <t>notification</t>
   </si>
   <si>
@@ -304,9 +238,6 @@
     <t>/monitor/list</t>
   </si>
   <si>
-    <t>消息通知</t>
-  </si>
-  <si>
     <t>可视化消息通知</t>
   </si>
   <si>
@@ -314,6 +245,78 @@
   </si>
   <si>
     <t>programmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JudgeSubjective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,63 +725,63 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -787,22 +790,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -811,86 +814,86 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -899,242 +902,242 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1142,25 +1145,25 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -1168,62 +1171,62 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5">
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5">
         <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
